--- a/data/data_monitoreo_huanchaquito.xlsx
+++ b/data/data_monitoreo_huanchaquito.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,191 +448,201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JULCA VALENZUELA CINTIA KARYN</t>
+          <t>TOLENTINO VASQUEZ DIANA KATHERYN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TOLENTINO VASQUEZ DIANA KATHERYN</t>
+          <t>JULCA VALENZUELA CINTIA KARYN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CARRILLO MARTÍNEZ HEIDY NAYELI</t>
+          <t>LEON VERA MELISSA FIORELLA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PIERINA NAGIELLY SANDOVAL CONTRERAS</t>
+          <t>CARRILLO MARTÍNEZ HEIDY NAYELI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DE LA CRUZ BENITES RICHARD ALEXANDER</t>
+          <t>CYNTHIA RODRIGUEZ LECCA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GUZMAN ZAVALETA CECILIA MARISOL</t>
+          <t>RUBIO MARIÑOS GISELA JUDITH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GASLAC GUTIERREZ FRANK JHORDY</t>
+          <t>RUTH MELISSA RAMIREZ VELEZMORO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VALER VEGA PATRICIA GERALDINE</t>
+          <t>DE LA CRUZ BENITES RICHARD ALEXANDER</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LEON VERA MELISSA FIORELLA</t>
+          <t>VALER VEGA PATRICIA GERALDINE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CYNTHIA RODRIGUEZ LECCA</t>
+          <t>SANCHEZ CORTEZ LEYLA DIANA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RODRIGUEZ RUBIO SANDRA MABEL</t>
+          <t>ARENAS ZAVALA ANDYELA PATRICIA ISIDORA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SEGURA ASTO YAMILET ANTONELA</t>
+          <t>GASLAC GUTIERREZ FRANK JHORDY</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SANCHEZ CORTEZ LEYLA DIANA</t>
+          <t>REYES RODRIGUEZ JEISSON STEVEN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RODRIGUEZ VASQUEZ WALTER</t>
+          <t>YZQUIERDO CARHUATANTA LEYDY YANELA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RUBIO MARIÑOS GISELA JUDITH</t>
+          <t>PIERINA NAGIELLY SANDOVAL CONTRERAS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>YZQUIERDO CARHUATANTA LEYDY YANELA</t>
+          <t>PONCE VILLANUEVA CARMEN ISABEL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PONCE VILLANUEVA CARMEN ISABEL</t>
+          <t>SEGURA ASTO YAMILET ANTONELA</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>REYES RODRIGUEZ JEISSON STEVEN</t>
+          <t>GUZMAN ZAVALETA CECILIA MARISOL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RUTH MELISSA RAMIREZ VELEZMORO</t>
+          <t>RODRIGUEZ RUBIO SANDRA MABEL</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RODRIGUEZ VASQUEZ WALTER</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_huanchaquito.xlsx
+++ b/data/data_monitoreo_huanchaquito.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -462,157 +462,157 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LEON VERA MELISSA FIORELLA</t>
+          <t>DE LA CRUZ BENITES RICHARD ALEXANDER</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CARRILLO MARTÍNEZ HEIDY NAYELI</t>
+          <t>SANCHEZ CORTEZ LEYLA DIANA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CYNTHIA RODRIGUEZ LECCA</t>
+          <t>VALER VEGA PATRICIA GERALDINE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RUBIO MARIÑOS GISELA JUDITH</t>
+          <t>YZQUIERDO CARHUATANTA LEYDY YANELA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RUTH MELISSA RAMIREZ VELEZMORO</t>
+          <t>CYNTHIA RODRIGUEZ LECCA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DE LA CRUZ BENITES RICHARD ALEXANDER</t>
+          <t>RODRIGUEZ RUBIO SANDRA MABEL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VALER VEGA PATRICIA GERALDINE</t>
+          <t>RUBIO MARIÑOS GISELA JUDITH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SANCHEZ CORTEZ LEYLA DIANA</t>
+          <t>GASLAC GUTIERREZ FRANK JHORDY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ARENAS ZAVALA ANDYELA PATRICIA ISIDORA</t>
+          <t>REYES RODRIGUEZ JEISSON STEVEN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GASLAC GUTIERREZ FRANK JHORDY</t>
+          <t>PONCE VILLANUEVA CARMEN ISABEL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>REYES RODRIGUEZ JEISSON STEVEN</t>
+          <t>PIERINA NAGIELLY SANDOVAL CONTRERAS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>YZQUIERDO CARHUATANTA LEYDY YANELA</t>
+          <t>CARRILLO MARTÍNEZ HEIDY NAYELI</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PIERINA NAGIELLY SANDOVAL CONTRERAS</t>
+          <t>RODRIGUEZ VASQUEZ WALTER</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PONCE VILLANUEVA CARMEN ISABEL</t>
+          <t>SEGURA ASTO YAMILET ANTONELA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SEGURA ASTO YAMILET ANTONELA</t>
+          <t>ARENAS ZAVALA ANDYELA PATRICIA ISIDORA</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -622,27 +622,27 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RODRIGUEZ RUBIO SANDRA MABEL</t>
+          <t>LEON VERA MELISSA FIORELLA</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RODRIGUEZ VASQUEZ WALTER</t>
+          <t>RUTH MELISSA RAMIREZ VELEZMORO</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_huanchaquito.xlsx
+++ b/data/data_monitoreo_huanchaquito.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -462,27 +462,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DE LA CRUZ BENITES RICHARD ALEXANDER</t>
+          <t>SANCHEZ CORTEZ LEYLA DIANA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SANCHEZ CORTEZ LEYLA DIANA</t>
+          <t>CARRILLO MARTÍNEZ HEIDY NAYELI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -492,27 +492,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YZQUIERDO CARHUATANTA LEYDY YANELA</t>
+          <t>DE LA CRUZ BENITES RICHARD ALEXANDER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CYNTHIA RODRIGUEZ LECCA</t>
+          <t>YZQUIERDO CARHUATANTA LEYDY YANELA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -522,27 +522,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RUBIO MARIÑOS GISELA JUDITH</t>
+          <t>PONCE VILLANUEVA CARMEN ISABEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GASLAC GUTIERREZ FRANK JHORDY</t>
+          <t>ARENAS ZAVALA ANDYELA PATRICIA ISIDORA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -552,47 +552,47 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PONCE VILLANUEVA CARMEN ISABEL</t>
+          <t>GASLAC GUTIERREZ FRANK JHORDY</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PIERINA NAGIELLY SANDOVAL CONTRERAS</t>
+          <t>RUBIO MARIÑOS GISELA JUDITH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARRILLO MARTÍNEZ HEIDY NAYELI</t>
+          <t>PIERINA NAGIELLY SANDOVAL CONTRERAS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RODRIGUEZ VASQUEZ WALTER</t>
+          <t>CYNTHIA RODRIGUEZ LECCA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -602,17 +602,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ARENAS ZAVALA ANDYELA PATRICIA ISIDORA</t>
+          <t>RODRIGUEZ VASQUEZ WALTER</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">

--- a/data/data_monitoreo_huanchaquito.xlsx
+++ b/data/data_monitoreo_huanchaquito.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -462,167 +462,167 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SANCHEZ CORTEZ LEYLA DIANA</t>
+          <t>CARRILLO MARTÍNEZ HEIDY NAYELI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CARRILLO MARTÍNEZ HEIDY NAYELI</t>
+          <t>DE LA CRUZ BENITES RICHARD ALEXANDER</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VALER VEGA PATRICIA GERALDINE</t>
+          <t>YZQUIERDO CARHUATANTA LEYDY YANELA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DE LA CRUZ BENITES RICHARD ALEXANDER</t>
+          <t>RODRIGUEZ RUBIO SANDRA MABEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YZQUIERDO CARHUATANTA LEYDY YANELA</t>
+          <t>ARENAS ZAVALA ANDYELA PATRICIA ISIDORA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RODRIGUEZ RUBIO SANDRA MABEL</t>
+          <t>REYES RODRIGUEZ JEISSON STEVEN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PONCE VILLANUEVA CARMEN ISABEL</t>
+          <t>GASLAC GUTIERREZ FRANK JHORDY</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ARENAS ZAVALA ANDYELA PATRICIA ISIDORA</t>
+          <t>SANCHEZ CORTEZ LEYLA DIANA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REYES RODRIGUEZ JEISSON STEVEN</t>
+          <t>RUBIO MARIÑOS GISELA JUDITH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GASLAC GUTIERREZ FRANK JHORDY</t>
+          <t>VALER VEGA PATRICIA GERALDINE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RUBIO MARIÑOS GISELA JUDITH</t>
+          <t>PIERINA NAGIELLY SANDOVAL CONTRERAS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PIERINA NAGIELLY SANDOVAL CONTRERAS</t>
+          <t>CYNTHIA RODRIGUEZ LECCA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CYNTHIA RODRIGUEZ LECCA</t>
+          <t>PONCE VILLANUEVA CARMEN ISABEL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SEGURA ASTO YAMILET ANTONELA</t>
+          <t>GUZMAN ZAVALETA CECILIA MARISOL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RODRIGUEZ VASQUEZ WALTER</t>
+          <t>SEGURA ASTO YAMILET ANTONELA</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GUZMAN ZAVALETA CECILIA MARISOL</t>
+          <t>RODRIGUEZ VASQUEZ WALTER</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">

--- a/data/data_monitoreo_huanchaquito.xlsx
+++ b/data/data_monitoreo_huanchaquito.xlsx
@@ -462,157 +462,157 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CARRILLO MARTÍNEZ HEIDY NAYELI</t>
+          <t>SANCHEZ CORTEZ LEYLA DIANA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DE LA CRUZ BENITES RICHARD ALEXANDER</t>
+          <t>CARRILLO MARTÍNEZ HEIDY NAYELI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YZQUIERDO CARHUATANTA LEYDY YANELA</t>
+          <t>VALER VEGA PATRICIA GERALDINE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RODRIGUEZ RUBIO SANDRA MABEL</t>
+          <t>DE LA CRUZ BENITES RICHARD ALEXANDER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ARENAS ZAVALA ANDYELA PATRICIA ISIDORA</t>
+          <t>YZQUIERDO CARHUATANTA LEYDY YANELA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>REYES RODRIGUEZ JEISSON STEVEN</t>
+          <t>RODRIGUEZ RUBIO SANDRA MABEL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GASLAC GUTIERREZ FRANK JHORDY</t>
+          <t>PONCE VILLANUEVA CARMEN ISABEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SANCHEZ CORTEZ LEYLA DIANA</t>
+          <t>ARENAS ZAVALA ANDYELA PATRICIA ISIDORA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RUBIO MARIÑOS GISELA JUDITH</t>
+          <t>REYES RODRIGUEZ JEISSON STEVEN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VALER VEGA PATRICIA GERALDINE</t>
+          <t>GASLAC GUTIERREZ FRANK JHORDY</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PIERINA NAGIELLY SANDOVAL CONTRERAS</t>
+          <t>RUBIO MARIÑOS GISELA JUDITH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CYNTHIA RODRIGUEZ LECCA</t>
+          <t>PIERINA NAGIELLY SANDOVAL CONTRERAS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PONCE VILLANUEVA CARMEN ISABEL</t>
+          <t>CYNTHIA RODRIGUEZ LECCA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GUZMAN ZAVALETA CECILIA MARISOL</t>
+          <t>SEGURA ASTO YAMILET ANTONELA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SEGURA ASTO YAMILET ANTONELA</t>
+          <t>GUZMAN ZAVALETA CECILIA MARISOL</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">

--- a/data/data_monitoreo_huanchaquito.xlsx
+++ b/data/data_monitoreo_huanchaquito.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -472,127 +472,127 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CARRILLO MARTÍNEZ HEIDY NAYELI</t>
+          <t>VALER VEGA PATRICIA GERALDINE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VALER VEGA PATRICIA GERALDINE</t>
+          <t>YZQUIERDO CARHUATANTA LEYDY YANELA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DE LA CRUZ BENITES RICHARD ALEXANDER</t>
+          <t>RODRIGUEZ RUBIO SANDRA MABEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YZQUIERDO CARHUATANTA LEYDY YANELA</t>
+          <t>DE LA CRUZ BENITES RICHARD ALEXANDER</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RODRIGUEZ RUBIO SANDRA MABEL</t>
+          <t>PONCE VILLANUEVA CARMEN ISABEL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PONCE VILLANUEVA CARMEN ISABEL</t>
+          <t>ARENAS ZAVALA ANDYELA PATRICIA ISIDORA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ARENAS ZAVALA ANDYELA PATRICIA ISIDORA</t>
+          <t>GASLAC GUTIERREZ FRANK JHORDY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REYES RODRIGUEZ JEISSON STEVEN</t>
+          <t>RUBIO MARIÑOS GISELA JUDITH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GASLAC GUTIERREZ FRANK JHORDY</t>
+          <t>REYES RODRIGUEZ JEISSON STEVEN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RUBIO MARIÑOS GISELA JUDITH</t>
+          <t>CARRILLO MARTÍNEZ HEIDY NAYELI</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PIERINA NAGIELLY SANDOVAL CONTRERAS</t>
+          <t>CYNTHIA RODRIGUEZ LECCA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CYNTHIA RODRIGUEZ LECCA</t>
+          <t>PIERINA NAGIELLY SANDOVAL CONTRERAS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RODRIGUEZ VASQUEZ WALTER</t>
+          <t>LEON VERA MELISSA FIORELLA</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,11 +628,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LEON VERA MELISSA FIORELLA</t>
+          <t>RODRIGUEZ VASQUEZ WALTER</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">

--- a/data/data_monitoreo_huanchaquito.xlsx
+++ b/data/data_monitoreo_huanchaquito.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -472,17 +472,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VALER VEGA PATRICIA GERALDINE</t>
+          <t>DE LA CRUZ BENITES RICHARD ALEXANDER</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -492,147 +492,147 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RODRIGUEZ RUBIO SANDRA MABEL</t>
+          <t>VALER VEGA PATRICIA GERALDINE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DE LA CRUZ BENITES RICHARD ALEXANDER</t>
+          <t>RODRIGUEZ RUBIO SANDRA MABEL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PONCE VILLANUEVA CARMEN ISABEL</t>
+          <t>CARRILLO MARTÍNEZ HEIDY NAYELI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ARENAS ZAVALA ANDYELA PATRICIA ISIDORA</t>
+          <t>PONCE VILLANUEVA CARMEN ISABEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GASLAC GUTIERREZ FRANK JHORDY</t>
+          <t>RUBIO MARIÑOS GISELA JUDITH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RUBIO MARIÑOS GISELA JUDITH</t>
+          <t>GASLAC GUTIERREZ FRANK JHORDY</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>REYES RODRIGUEZ JEISSON STEVEN</t>
+          <t>ARENAS ZAVALA ANDYELA PATRICIA ISIDORA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CARRILLO MARTÍNEZ HEIDY NAYELI</t>
+          <t>PIERINA NAGIELLY SANDOVAL CONTRERAS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CYNTHIA RODRIGUEZ LECCA</t>
+          <t>SEGURA ASTO YAMILET ANTONELA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PIERINA NAGIELLY SANDOVAL CONTRERAS</t>
+          <t>CYNTHIA RODRIGUEZ LECCA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SEGURA ASTO YAMILET ANTONELA</t>
+          <t>REYES RODRIGUEZ JEISSON STEVEN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GUZMAN ZAVALETA CECILIA MARISOL</t>
+          <t>RODRIGUEZ VASQUEZ WALTER</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LEON VERA MELISSA FIORELLA</t>
+          <t>GUZMAN ZAVALETA CECILIA MARISOL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RODRIGUEZ VASQUEZ WALTER</t>
+          <t>LEON VERA MELISSA FIORELLA</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
